--- a/Sessao_5/dados.xlsx
+++ b/Sessao_5/dados.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Uni\Ano_3\Semestre_1\P1\LFEA_II\LFEA_II\Sessao_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A9E585-D72C-4BAF-BC4E-7B1B4C082E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818E063F-45AE-4015-85B9-7AC03BC4BE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sinograma" sheetId="1" r:id="rId1"/>
     <sheet name="dados" sheetId="2" r:id="rId2"/>
+    <sheet name="Folha1" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Δt  [s]</t>
   </si>
@@ -111,6 +112,30 @@
   <si>
     <t>θ  [°]</t>
   </si>
+  <si>
+    <t>ca</t>
+  </si>
+  <si>
+    <t>cb</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>10 em cima</t>
+  </si>
+  <si>
+    <t>5 em cima</t>
+  </si>
+  <si>
+    <t>h agrafos</t>
+  </si>
+  <si>
+    <t>agrafo</t>
+  </si>
+  <si>
+    <t>moeda</t>
+  </si>
 </sst>
 </file>
 
@@ -155,7 +180,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,6 +259,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCDFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -247,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -276,7 +313,6 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -294,12 +330,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCDFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -6489,6 +6540,984 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>10</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Folha1!$C$23:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$D$23:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2058</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1910</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1772</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1257</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>654</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>237</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EC1C-4AFC-B3ED-772BFB2B9E96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Folha1!$C$23:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$E$23:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1927</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1877</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1846</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>733</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>282</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EC1C-4AFC-B3ED-772BFB2B9E96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="543488015"/>
+        <c:axId val="1977133072"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="543488015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1977133072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1977133072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="543488015"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6562,6 +7591,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91EAA88E-014E-96EC-1E43-15FE33658D4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7815,8 +8885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AJ50"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:Q38"/>
+    <sheetView topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7887,1138 +8957,1234 @@
       <c r="B13" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="AH13" s="10"/>
-      <c r="AI13" s="10"/>
-      <c r="AJ13" s="10"/>
+      <c r="AH13" s="17"/>
+      <c r="AI13" s="17"/>
+      <c r="AJ13" s="17"/>
     </row>
     <row r="14" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B14" s="11"/>
-      <c r="C14" s="12">
+      <c r="B14" s="10"/>
+      <c r="C14" s="11">
         <v>-35</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="11">
         <f>C14+$B$3</f>
         <v>-30</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="11">
         <f t="shared" ref="E14:Q14" si="0">D14+$B$3</f>
         <v>-25</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <f t="shared" si="0"/>
         <v>-20</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="11">
         <f t="shared" si="0"/>
         <v>-15</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="11">
         <f t="shared" si="0"/>
         <v>-10</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="11">
         <f t="shared" si="0"/>
         <v>-5</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M14" s="11">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="N14" s="12">
+      <c r="N14" s="11">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="O14" s="12">
+      <c r="O14" s="11">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="P14" s="12">
+      <c r="P14" s="11">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="Q14" s="12">
+      <c r="Q14" s="11">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B15" s="13">
+      <c r="B15" s="12">
         <v>0</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14">
+      <c r="C15" s="13"/>
+      <c r="D15" s="13">
         <v>4</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="13">
         <v>5</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="13">
         <v>15</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="13">
         <v>18</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="13">
         <v>172</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="13">
         <v>689</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="13">
         <v>1100</v>
       </c>
-      <c r="K15" s="14">
+      <c r="K15" s="13">
         <v>800</v>
       </c>
-      <c r="L15" s="14">
+      <c r="L15" s="13">
         <v>387</v>
       </c>
-      <c r="M15" s="14">
+      <c r="M15" s="13">
         <v>468</v>
       </c>
-      <c r="N15" s="14">
+      <c r="N15" s="13">
         <v>612</v>
       </c>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
+      <c r="O15" s="13">
+        <v>446</v>
+      </c>
+      <c r="P15" s="13">
+        <v>172</v>
+      </c>
+      <c r="Q15" s="13"/>
     </row>
     <row r="16" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="15">
+      <c r="B16" s="14">
         <f t="shared" ref="B16:B38" si="1">B15+$B$4</f>
         <v>15</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16">
+      <c r="C16" s="15"/>
+      <c r="D16" s="15">
         <v>7</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="15">
         <v>10</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="15">
         <v>10</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="15">
         <v>73</v>
       </c>
-      <c r="H16" s="16">
+      <c r="H16" s="15">
         <v>557</v>
       </c>
-      <c r="I16" s="16">
+      <c r="I16" s="15">
         <v>1029</v>
       </c>
-      <c r="J16" s="16">
+      <c r="J16" s="15">
         <v>959</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K16" s="15">
         <v>368</v>
       </c>
-      <c r="L16" s="16">
+      <c r="L16" s="15">
         <v>269</v>
       </c>
-      <c r="M16" s="16">
+      <c r="M16" s="15">
         <v>516</v>
       </c>
-      <c r="N16" s="16">
+      <c r="N16" s="15">
         <v>535</v>
       </c>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
+      <c r="O16" s="15">
+        <v>304</v>
+      </c>
+      <c r="P16" s="15">
+        <v>72</v>
+      </c>
+      <c r="Q16" s="15"/>
     </row>
     <row r="17" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="13">
+      <c r="B17" s="12">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14">
+      <c r="C17" s="13"/>
+      <c r="D17" s="13">
         <v>12</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="13">
         <v>22</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="13">
         <v>30</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="13">
         <v>376</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="13">
         <v>948</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="13">
         <v>1089</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="13">
         <v>525</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="13">
         <v>167</v>
       </c>
-      <c r="L17" s="14">
+      <c r="L17" s="13">
         <v>381</v>
       </c>
-      <c r="M17" s="14">
+      <c r="M17" s="13">
         <v>549</v>
       </c>
-      <c r="N17" s="14">
+      <c r="N17" s="13">
         <v>427</v>
       </c>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
+      <c r="O17" s="13">
+        <v>180</v>
+      </c>
+      <c r="P17" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="13"/>
     </row>
     <row r="18" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B18" s="15">
+      <c r="B18" s="14">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16">
+      <c r="C18" s="15"/>
+      <c r="D18" s="15">
         <v>14</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="15">
         <v>14</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="15">
         <v>210</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="15">
         <v>713</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H18" s="15">
         <v>1119</v>
       </c>
-      <c r="I18" s="16">
+      <c r="I18" s="15">
         <v>771</v>
       </c>
-      <c r="J18" s="16">
+      <c r="J18" s="15">
         <v>243</v>
       </c>
-      <c r="K18" s="16">
+      <c r="K18" s="15">
         <v>275</v>
       </c>
-      <c r="L18" s="16">
+      <c r="L18" s="15">
         <v>519</v>
       </c>
-      <c r="M18" s="16">
+      <c r="M18" s="15">
         <v>472</v>
       </c>
-      <c r="N18" s="16">
+      <c r="N18" s="15">
         <v>224</v>
       </c>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
+      <c r="O18" s="15">
+        <v>49</v>
+      </c>
+      <c r="P18" s="15">
+        <v>9</v>
+      </c>
+      <c r="Q18" s="15"/>
     </row>
     <row r="19" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="13">
+      <c r="B19" s="12">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14">
+      <c r="C19" s="13"/>
+      <c r="D19" s="13">
         <v>15</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="13">
         <v>74</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="13">
         <v>735</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="13">
         <v>1000</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="13">
         <v>1010</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I19" s="13">
         <v>486</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="13">
         <v>259</v>
       </c>
-      <c r="K19" s="14">
+      <c r="K19" s="13">
         <v>493</v>
       </c>
-      <c r="L19" s="14">
+      <c r="L19" s="13">
         <v>523</v>
       </c>
-      <c r="M19" s="14">
+      <c r="M19" s="13">
         <v>295</v>
       </c>
-      <c r="N19" s="14">
+      <c r="N19" s="13">
         <v>53</v>
       </c>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
+      <c r="O19" s="13">
+        <v>6</v>
+      </c>
+      <c r="P19" s="13">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="13"/>
     </row>
     <row r="20" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B20" s="15">
+      <c r="B20" s="14">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16">
+      <c r="C20" s="15"/>
+      <c r="D20" s="15">
         <v>17</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="15">
         <v>228</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="15">
         <v>745</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G20" s="15">
         <v>1177</v>
       </c>
-      <c r="H20" s="16">
+      <c r="H20" s="15">
         <v>927</v>
       </c>
-      <c r="I20" s="16">
+      <c r="I20" s="15">
         <v>435</v>
       </c>
-      <c r="J20" s="16">
+      <c r="J20" s="15">
         <v>416</v>
       </c>
-      <c r="K20" s="16">
+      <c r="K20" s="15">
         <v>571</v>
       </c>
-      <c r="L20" s="16">
+      <c r="L20" s="15">
         <v>322</v>
       </c>
-      <c r="M20" s="16">
+      <c r="M20" s="15">
         <v>82</v>
       </c>
-      <c r="N20" s="16">
+      <c r="N20" s="15">
         <v>12</v>
       </c>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
+      <c r="O20" s="15">
+        <v>5</v>
+      </c>
+      <c r="P20" s="15">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="15"/>
     </row>
     <row r="21" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B21" s="13">
+      <c r="B21" s="12">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14">
+      <c r="C21" s="13"/>
+      <c r="D21" s="13">
         <v>57</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="13">
         <v>359</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="13">
         <v>903</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="13">
         <v>1182</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="13">
         <v>822</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I21" s="13">
         <v>420</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="13">
         <v>554</v>
       </c>
-      <c r="K21" s="14">
+      <c r="K21" s="13">
         <v>373</v>
       </c>
-      <c r="L21" s="14">
+      <c r="L21" s="13">
         <v>106</v>
       </c>
-      <c r="M21" s="14">
+      <c r="M21" s="13">
         <v>15</v>
       </c>
-      <c r="N21" s="14">
+      <c r="N21" s="13">
         <v>10</v>
       </c>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
+      <c r="O21" s="13">
+        <v>3</v>
+      </c>
+      <c r="P21" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="13"/>
     </row>
     <row r="22" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B22" s="15">
+      <c r="B22" s="14">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16">
+      <c r="C22" s="15"/>
+      <c r="D22" s="15">
         <v>94</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="15">
         <v>412</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="15">
         <v>922</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="15">
         <v>1266</v>
       </c>
-      <c r="H22" s="16">
+      <c r="H22" s="15">
         <v>1048</v>
       </c>
-      <c r="I22" s="16">
+      <c r="I22" s="15">
         <v>782</v>
       </c>
-      <c r="J22" s="16">
+      <c r="J22" s="15">
         <v>412</v>
       </c>
-      <c r="K22" s="16">
+      <c r="K22" s="15">
         <v>118</v>
       </c>
-      <c r="L22" s="16">
+      <c r="L22" s="15">
         <v>5</v>
       </c>
-      <c r="M22" s="16">
+      <c r="M22" s="15">
         <v>6</v>
       </c>
-      <c r="N22" s="16">
+      <c r="N22" s="15">
         <v>6</v>
       </c>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
+      <c r="O22" s="15">
+        <v>1</v>
+      </c>
+      <c r="P22" s="15">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="15"/>
     </row>
     <row r="23" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B23" s="13">
+      <c r="B23" s="12">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14">
+      <c r="C23" s="13"/>
+      <c r="D23" s="13">
         <v>64</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="13">
         <v>375</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="13">
         <v>873</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="13">
         <v>1403</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="13">
         <v>1276</v>
       </c>
-      <c r="I23" s="14">
+      <c r="I23" s="13">
         <v>743</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J23" s="13">
         <v>208</v>
       </c>
-      <c r="K23" s="14">
+      <c r="K23" s="13">
         <v>24</v>
       </c>
-      <c r="L23" s="14">
+      <c r="L23" s="13">
         <v>16</v>
       </c>
-      <c r="M23" s="14">
+      <c r="M23" s="13">
         <v>6</v>
       </c>
-      <c r="N23" s="14">
+      <c r="N23" s="13">
         <v>4</v>
       </c>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
+      <c r="O23" s="13">
+        <v>3</v>
+      </c>
+      <c r="P23" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="13"/>
     </row>
     <row r="24" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B24" s="15">
+      <c r="B24" s="14">
         <f t="shared" si="1"/>
         <v>135</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16">
+      <c r="C24" s="15"/>
+      <c r="D24" s="15">
         <v>24</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="15">
         <v>228</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="15">
         <v>801</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G24" s="15">
         <v>1437</v>
       </c>
-      <c r="H24" s="16">
+      <c r="H24" s="15">
         <v>1367</v>
       </c>
-      <c r="I24" s="16">
+      <c r="I24" s="15">
         <v>665</v>
       </c>
-      <c r="J24" s="16">
+      <c r="J24" s="15">
         <v>208</v>
       </c>
-      <c r="K24" s="16">
+      <c r="K24" s="15">
         <v>20</v>
       </c>
-      <c r="L24" s="16">
+      <c r="L24" s="15">
         <v>12</v>
       </c>
-      <c r="M24" s="16">
+      <c r="M24" s="15">
         <v>7</v>
       </c>
-      <c r="N24" s="16">
+      <c r="N24" s="15">
         <v>6</v>
       </c>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
+      <c r="O24" s="15">
+        <v>4</v>
+      </c>
+      <c r="P24" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="15"/>
     </row>
     <row r="25" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B25" s="13">
+      <c r="B25" s="12">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14">
+      <c r="C25" s="13"/>
+      <c r="D25" s="13">
         <v>21</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="13">
         <v>193</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="13">
         <v>781</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="13">
         <v>1298</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="13">
         <v>1436</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I25" s="13">
         <v>941</v>
       </c>
-      <c r="J25" s="14">
+      <c r="J25" s="13">
         <v>430</v>
       </c>
-      <c r="K25" s="14">
+      <c r="K25" s="13">
         <v>117</v>
       </c>
-      <c r="L25" s="14">
+      <c r="L25" s="13">
         <v>18</v>
       </c>
-      <c r="M25" s="14">
+      <c r="M25" s="13">
         <v>10</v>
       </c>
-      <c r="N25" s="14">
+      <c r="N25" s="13">
         <v>7</v>
       </c>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
+      <c r="O25" s="13">
+        <v>3</v>
+      </c>
+      <c r="P25" s="13">
+        <v>3</v>
+      </c>
+      <c r="Q25" s="13"/>
     </row>
     <row r="26" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="15">
+      <c r="B26" s="14">
         <f t="shared" si="1"/>
         <v>165</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16">
+      <c r="C26" s="15"/>
+      <c r="D26" s="15">
         <v>83</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="15">
         <v>302</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="15">
         <v>701</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26" s="15">
         <v>1049</v>
       </c>
-      <c r="H26" s="16">
+      <c r="H26" s="15">
         <v>1149</v>
       </c>
-      <c r="I26" s="16">
+      <c r="I26" s="15">
         <v>1168</v>
       </c>
-      <c r="J26" s="16">
+      <c r="J26" s="15">
         <v>859</v>
       </c>
-      <c r="K26" s="16">
+      <c r="K26" s="15">
         <v>419</v>
       </c>
-      <c r="L26" s="16">
+      <c r="L26" s="15">
         <v>112</v>
       </c>
-      <c r="M26" s="16">
+      <c r="M26" s="15">
         <v>13</v>
       </c>
-      <c r="N26" s="16">
+      <c r="N26" s="15">
         <v>9</v>
       </c>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
+      <c r="O26" s="15">
+        <v>5</v>
+      </c>
+      <c r="P26" s="15">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="15"/>
     </row>
     <row r="27" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B27" s="13">
+      <c r="B27" s="12">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14">
+      <c r="C27" s="13"/>
+      <c r="D27" s="13">
         <v>167</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="13">
         <v>421</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27" s="13">
         <v>618</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G27" s="13">
         <v>637</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27" s="13">
         <v>747</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I27" s="13">
         <v>996</v>
       </c>
-      <c r="J27" s="14">
+      <c r="J27" s="13">
         <v>1127</v>
       </c>
-      <c r="K27" s="14">
+      <c r="K27" s="13">
         <v>874</v>
       </c>
-      <c r="L27" s="14">
+      <c r="L27" s="13">
         <v>454</v>
       </c>
-      <c r="M27" s="14">
+      <c r="M27" s="13">
         <v>111</v>
       </c>
-      <c r="N27" s="14">
+      <c r="N27" s="13">
         <v>15</v>
       </c>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
+      <c r="O27" s="13">
+        <v>10</v>
+      </c>
+      <c r="P27" s="13">
+        <v>9</v>
+      </c>
+      <c r="Q27" s="13"/>
     </row>
     <row r="28" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B28" s="15">
+      <c r="B28" s="14">
         <f t="shared" si="1"/>
         <v>195</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16">
+      <c r="C28" s="15"/>
+      <c r="D28" s="15">
         <v>174</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="15">
         <v>440</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28" s="15">
         <v>647</v>
       </c>
-      <c r="G28" s="16">
+      <c r="G28" s="15">
         <v>451</v>
       </c>
-      <c r="H28" s="16">
+      <c r="H28" s="15">
         <v>387</v>
       </c>
-      <c r="I28" s="16">
+      <c r="I28" s="15">
         <v>596</v>
       </c>
-      <c r="J28" s="16">
+      <c r="J28" s="15">
         <v>904</v>
       </c>
-      <c r="K28" s="16">
+      <c r="K28" s="15">
         <v>1095</v>
       </c>
-      <c r="L28" s="16">
+      <c r="L28" s="15">
         <v>824</v>
       </c>
-      <c r="M28" s="16">
+      <c r="M28" s="15">
         <v>421</v>
       </c>
-      <c r="N28" s="16">
+      <c r="N28" s="15">
         <v>82</v>
       </c>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
+      <c r="O28" s="15">
+        <v>14</v>
+      </c>
+      <c r="P28" s="15">
+        <v>7</v>
+      </c>
+      <c r="Q28" s="15"/>
     </row>
     <row r="29" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B29" s="13">
+      <c r="B29" s="12">
         <f t="shared" si="1"/>
         <v>210</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14">
+      <c r="C29" s="13"/>
+      <c r="D29" s="13">
         <v>144</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="13">
         <v>414</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F29" s="13">
         <v>573</v>
       </c>
-      <c r="G29" s="14">
+      <c r="G29" s="13">
         <v>556</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H29" s="13">
         <v>274</v>
       </c>
-      <c r="I29" s="14">
+      <c r="I29" s="13">
         <v>272</v>
       </c>
-      <c r="J29" s="14">
+      <c r="J29" s="13">
         <v>529</v>
       </c>
-      <c r="K29" s="14">
+      <c r="K29" s="13">
         <v>1019</v>
       </c>
-      <c r="L29" s="14">
+      <c r="L29" s="13">
         <v>1117</v>
       </c>
-      <c r="M29" s="14">
+      <c r="M29" s="13">
         <v>808</v>
       </c>
-      <c r="N29" s="14">
+      <c r="N29" s="13">
         <v>344</v>
       </c>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
+      <c r="O29" s="13">
+        <v>72</v>
+      </c>
+      <c r="P29" s="13">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="13"/>
     </row>
     <row r="30" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B30" s="15">
+      <c r="B30" s="14">
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16">
+      <c r="C30" s="15"/>
+      <c r="D30" s="15">
         <v>58</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="15">
         <v>281</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30" s="15">
         <v>523</v>
       </c>
-      <c r="G30" s="16">
+      <c r="G30" s="15">
         <v>600</v>
       </c>
-      <c r="H30" s="16">
+      <c r="H30" s="15">
         <v>540</v>
       </c>
-      <c r="I30" s="16">
+      <c r="I30" s="15">
         <v>196</v>
       </c>
-      <c r="J30" s="16">
+      <c r="J30" s="15">
         <v>282</v>
       </c>
-      <c r="K30" s="16">
+      <c r="K30" s="15">
         <v>694</v>
       </c>
-      <c r="L30" s="16">
+      <c r="L30" s="15">
         <v>1062</v>
       </c>
-      <c r="M30" s="16">
+      <c r="M30" s="15">
         <v>1009</v>
       </c>
-      <c r="N30" s="16">
+      <c r="N30" s="15">
         <v>653</v>
       </c>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
+      <c r="O30" s="15">
+        <v>237</v>
+      </c>
+      <c r="P30" s="15">
+        <v>38</v>
+      </c>
+      <c r="Q30" s="15"/>
     </row>
     <row r="31" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B31" s="13">
+      <c r="B31" s="12">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14">
+      <c r="C31" s="13"/>
+      <c r="D31" s="13">
         <v>17</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="13">
         <v>116</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F31" s="13">
         <v>304</v>
       </c>
-      <c r="G31" s="14">
+      <c r="G31" s="13">
         <v>540</v>
       </c>
-      <c r="H31" s="14">
+      <c r="H31" s="13">
         <v>581</v>
       </c>
-      <c r="I31" s="14">
+      <c r="I31" s="13">
         <v>430</v>
       </c>
-      <c r="J31" s="14">
+      <c r="J31" s="13">
         <v>219</v>
       </c>
-      <c r="K31" s="14">
+      <c r="K31" s="13">
         <v>488</v>
       </c>
-      <c r="L31" s="14">
+      <c r="L31" s="13">
         <v>894</v>
       </c>
-      <c r="M31" s="14">
+      <c r="M31" s="13">
         <v>1094</v>
       </c>
-      <c r="N31" s="14">
+      <c r="N31" s="13">
         <v>729</v>
       </c>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
+      <c r="O31" s="13">
+        <v>431</v>
+      </c>
+      <c r="P31" s="13">
+        <v>90</v>
+      </c>
+      <c r="Q31" s="13"/>
     </row>
     <row r="32" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B32" s="15">
+      <c r="B32" s="14">
         <f t="shared" si="1"/>
         <v>255</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16">
+      <c r="C32" s="15"/>
+      <c r="D32" s="15">
         <v>2</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="15">
         <v>16</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F32" s="15">
         <v>127</v>
       </c>
-      <c r="G32" s="16">
+      <c r="G32" s="15">
         <v>312</v>
       </c>
-      <c r="H32" s="16">
+      <c r="H32" s="15">
         <v>474</v>
       </c>
-      <c r="I32" s="16">
+      <c r="I32" s="15">
         <v>552</v>
       </c>
-      <c r="J32" s="16">
+      <c r="J32" s="15">
         <v>412</v>
       </c>
-      <c r="K32" s="16">
+      <c r="K32" s="15">
         <v>430</v>
       </c>
-      <c r="L32" s="16">
+      <c r="L32" s="15">
         <v>748</v>
       </c>
-      <c r="M32" s="16">
+      <c r="M32" s="15">
         <v>1222</v>
       </c>
-      <c r="N32" s="16">
+      <c r="N32" s="15">
         <v>870</v>
       </c>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
+      <c r="O32" s="15">
+        <v>499</v>
+      </c>
+      <c r="P32" s="15">
+        <v>99</v>
+      </c>
+      <c r="Q32" s="15"/>
     </row>
     <row r="33" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B33" s="13">
+      <c r="B33" s="12">
         <f t="shared" si="1"/>
         <v>270</v>
       </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14">
+      <c r="C33" s="13"/>
+      <c r="D33" s="13">
         <v>6</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="13">
         <v>8</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F33" s="13">
         <v>13</v>
       </c>
-      <c r="G33" s="14">
+      <c r="G33" s="13">
         <v>101</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H33" s="13">
         <v>281</v>
       </c>
-      <c r="I33" s="14">
+      <c r="I33" s="13">
         <v>486</v>
       </c>
-      <c r="J33" s="14">
+      <c r="J33" s="13">
         <v>595</v>
       </c>
-      <c r="K33" s="14">
+      <c r="K33" s="13">
         <v>663</v>
       </c>
-      <c r="L33" s="14">
+      <c r="L33" s="13">
         <v>904</v>
       </c>
-      <c r="M33" s="14">
+      <c r="M33" s="13">
         <v>1225</v>
       </c>
-      <c r="N33" s="14">
+      <c r="N33" s="13">
         <v>851</v>
       </c>
-      <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="14"/>
+      <c r="O33" s="13">
+        <v>460</v>
+      </c>
+      <c r="P33" s="13">
+        <v>59</v>
+      </c>
+      <c r="Q33" s="13"/>
     </row>
     <row r="34" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B34" s="15">
+      <c r="B34" s="14">
         <f t="shared" si="1"/>
         <v>285</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16">
+      <c r="C34" s="15"/>
+      <c r="D34" s="15">
         <v>1</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="15">
         <v>3</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F34" s="15">
         <v>9</v>
       </c>
-      <c r="G34" s="16">
+      <c r="G34" s="15">
         <v>11</v>
       </c>
-      <c r="H34" s="16">
+      <c r="H34" s="15">
         <v>134</v>
       </c>
-      <c r="I34" s="16">
+      <c r="I34" s="15">
         <v>261</v>
       </c>
-      <c r="J34" s="16">
+      <c r="J34" s="15">
         <v>471</v>
       </c>
-      <c r="K34" s="16">
+      <c r="K34" s="15">
         <v>854</v>
       </c>
-      <c r="L34" s="16">
+      <c r="L34" s="15">
         <v>1182</v>
       </c>
-      <c r="M34" s="16">
+      <c r="M34" s="15">
         <v>1401</v>
       </c>
-      <c r="N34" s="16">
+      <c r="N34" s="15">
         <v>832</v>
       </c>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
+      <c r="O34" s="15">
+        <v>314</v>
+      </c>
+      <c r="P34" s="15">
+        <v>42</v>
+      </c>
+      <c r="Q34" s="15"/>
     </row>
     <row r="35" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B35" s="13">
+      <c r="B35" s="12">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14">
+      <c r="C35" s="13"/>
+      <c r="D35" s="13">
         <v>1</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E35" s="13">
         <v>7</v>
       </c>
-      <c r="F35" s="14">
+      <c r="F35" s="13">
         <v>4</v>
       </c>
-      <c r="G35" s="14">
+      <c r="G35" s="13">
         <v>9</v>
       </c>
-      <c r="H35" s="14">
+      <c r="H35" s="13">
         <v>7</v>
       </c>
-      <c r="I35" s="14">
+      <c r="I35" s="13">
         <v>52</v>
       </c>
-      <c r="J35" s="14">
+      <c r="J35" s="13">
         <v>230</v>
       </c>
-      <c r="K35" s="14">
+      <c r="K35" s="13">
         <v>776</v>
       </c>
-      <c r="L35" s="14">
+      <c r="L35" s="13">
         <v>1393</v>
       </c>
-      <c r="M35" s="14">
+      <c r="M35" s="13">
         <v>1417</v>
       </c>
-      <c r="N35" s="14">
+      <c r="N35" s="13">
         <v>771</v>
       </c>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="14"/>
+      <c r="O35" s="13">
+        <v>239</v>
+      </c>
+      <c r="P35" s="13">
+        <v>23</v>
+      </c>
+      <c r="Q35" s="13"/>
     </row>
     <row r="36" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B36" s="15">
+      <c r="B36" s="14">
         <f t="shared" si="1"/>
         <v>315</v>
       </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16">
+      <c r="C36" s="15"/>
+      <c r="D36" s="15">
         <v>2</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E36" s="15">
         <v>7</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F36" s="15">
         <v>4</v>
       </c>
-      <c r="G36" s="16">
+      <c r="G36" s="15">
         <v>7</v>
       </c>
-      <c r="H36" s="16">
+      <c r="H36" s="15">
         <v>8</v>
       </c>
-      <c r="I36" s="16">
+      <c r="I36" s="15">
         <v>12</v>
       </c>
-      <c r="J36" s="16">
+      <c r="J36" s="15">
         <v>199</v>
       </c>
-      <c r="K36" s="16">
+      <c r="K36" s="15">
         <v>755</v>
       </c>
-      <c r="L36" s="16">
+      <c r="L36" s="15">
         <v>1385</v>
       </c>
-      <c r="M36" s="16">
+      <c r="M36" s="15">
         <v>1302</v>
       </c>
-      <c r="N36" s="16">
+      <c r="N36" s="15">
         <v>769</v>
       </c>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="16"/>
+      <c r="O36" s="15">
+        <v>300</v>
+      </c>
+      <c r="P36" s="15">
+        <v>109</v>
+      </c>
+      <c r="Q36" s="15"/>
     </row>
     <row r="37" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B37" s="13">
+      <c r="B37" s="12">
         <f t="shared" si="1"/>
         <v>330</v>
       </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14">
+      <c r="C37" s="13"/>
+      <c r="D37" s="13">
         <v>4</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E37" s="13">
         <v>8</v>
       </c>
-      <c r="F37" s="14">
+      <c r="F37" s="13">
         <v>9</v>
       </c>
-      <c r="G37" s="14">
+      <c r="G37" s="13">
         <v>7</v>
       </c>
-      <c r="H37" s="14">
+      <c r="H37" s="13">
         <v>11</v>
       </c>
-      <c r="I37" s="14">
+      <c r="I37" s="13">
         <v>49</v>
       </c>
-      <c r="J37" s="14">
+      <c r="J37" s="13">
         <v>477</v>
       </c>
-      <c r="K37" s="14">
+      <c r="K37" s="13">
         <v>1044</v>
       </c>
-      <c r="L37" s="14">
+      <c r="L37" s="13">
         <v>1227</v>
       </c>
-      <c r="M37" s="14">
+      <c r="M37" s="13">
         <v>1056</v>
       </c>
-      <c r="N37" s="14">
+      <c r="N37" s="13">
         <v>663</v>
       </c>
-      <c r="O37" s="14"/>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="14"/>
+      <c r="O37" s="13">
+        <v>412</v>
+      </c>
+      <c r="P37" s="13">
+        <v>185</v>
+      </c>
+      <c r="Q37" s="13"/>
     </row>
     <row r="38" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B38" s="15">
+      <c r="B38" s="14">
         <f t="shared" si="1"/>
         <v>345</v>
       </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16">
+      <c r="C38" s="15"/>
+      <c r="D38" s="15">
         <v>7</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E38" s="15">
         <v>6</v>
       </c>
-      <c r="F38" s="16">
+      <c r="F38" s="15">
         <v>9</v>
       </c>
-      <c r="G38" s="16">
+      <c r="G38" s="15">
         <v>8</v>
       </c>
-      <c r="H38" s="16">
+      <c r="H38" s="15">
         <v>9</v>
       </c>
-      <c r="I38" s="16">
+      <c r="I38" s="15">
         <v>293</v>
       </c>
-      <c r="J38" s="16">
+      <c r="J38" s="15">
         <v>905</v>
       </c>
-      <c r="K38" s="16">
+      <c r="K38" s="15">
         <v>1119</v>
       </c>
-      <c r="L38" s="16">
+      <c r="L38" s="15">
         <v>917</v>
       </c>
-      <c r="M38" s="16">
+      <c r="M38" s="15">
         <v>654</v>
       </c>
-      <c r="N38" s="16">
+      <c r="N38" s="15">
         <v>637</v>
       </c>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
+      <c r="O38" s="15">
+        <v>442</v>
+      </c>
+      <c r="P38" s="15">
+        <v>208</v>
+      </c>
+      <c r="Q38" s="15"/>
     </row>
     <row r="39" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B39" s="17"/>
+      <c r="B39" s="16"/>
     </row>
     <row r="40" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B40" s="17"/>
+      <c r="B40" s="16"/>
     </row>
     <row r="41" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B41" s="17"/>
+      <c r="B41" s="16"/>
     </row>
     <row r="42" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B42" s="17"/>
+      <c r="B42" s="16"/>
     </row>
     <row r="43" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B43" s="17"/>
+      <c r="B43" s="16"/>
     </row>
     <row r="44" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B44" s="17"/>
+      <c r="B44" s="16"/>
     </row>
     <row r="45" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B45" s="17"/>
+      <c r="B45" s="16"/>
     </row>
     <row r="46" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B46" s="17"/>
+      <c r="B46" s="16"/>
     </row>
     <row r="47" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B47" s="17"/>
+      <c r="B47" s="16"/>
     </row>
     <row r="48" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B48" s="17"/>
+      <c r="B48" s="16"/>
     </row>
     <row r="49" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B49" s="17"/>
+      <c r="B49" s="16"/>
     </row>
     <row r="50" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B50" s="17"/>
+      <c r="B50" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9031,1061 +10197,1790 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA18141-E92E-4CF0-BD47-38FE457E92C4}">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12">
+    <row r="1" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="10"/>
+      <c r="B1" s="11">
         <f>-30</f>
         <v>-30</v>
       </c>
-      <c r="C1" s="12">
+      <c r="C1" s="11">
         <v>-25</v>
       </c>
-      <c r="D1" s="12">
+      <c r="D1" s="11">
         <v>-20</v>
       </c>
-      <c r="E1" s="12">
+      <c r="E1" s="11">
         <v>-15</v>
       </c>
-      <c r="F1" s="12">
+      <c r="F1" s="11">
         <v>-10</v>
       </c>
-      <c r="G1" s="12">
+      <c r="G1" s="11">
         <v>-5</v>
       </c>
-      <c r="H1" s="12">
+      <c r="H1" s="11">
         <v>0</v>
       </c>
-      <c r="I1" s="12">
+      <c r="I1" s="11">
         <v>5</v>
       </c>
-      <c r="J1" s="12">
+      <c r="J1" s="11">
         <v>10</v>
       </c>
-      <c r="K1" s="12">
+      <c r="K1" s="11">
         <v>15</v>
       </c>
-      <c r="L1" s="12">
+      <c r="L1" s="11">
         <v>20</v>
       </c>
-      <c r="M1" s="12">
+      <c r="M1" s="11">
         <v>25</v>
       </c>
-      <c r="N1" s="12">
-        <v>20</v>
-      </c>
-      <c r="O1" s="12">
+      <c r="N1" s="11">
+        <v>30</v>
+      </c>
+      <c r="O1" s="11">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
+    <row r="2" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
         <v>0</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="13">
         <v>4</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="13">
         <v>5</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="13">
         <v>15</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="13">
         <v>18</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="13">
         <v>172</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="13">
         <v>689</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="13">
         <v>1100</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="13">
         <v>800</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="13">
         <v>387</v>
       </c>
-      <c r="K2" s="14">
+      <c r="K2" s="13">
         <v>468</v>
       </c>
-      <c r="L2" s="14">
+      <c r="L2" s="13">
         <v>612</v>
       </c>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
+      <c r="M2" s="13">
+        <v>446</v>
+      </c>
+      <c r="N2" s="13">
+        <v>172</v>
+      </c>
+      <c r="O2" s="13"/>
     </row>
-    <row r="3" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="15">
+    <row r="3" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="14">
         <v>15</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="15">
         <v>7</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="15">
         <v>10</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <v>10</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="15">
         <v>73</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="15">
         <v>557</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="15">
         <v>1029</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="15">
         <v>959</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="15">
         <v>368</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="15">
         <v>269</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="15">
         <v>516</v>
       </c>
-      <c r="L3" s="16">
+      <c r="L3" s="15">
         <v>535</v>
       </c>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
+      <c r="M3" s="15">
+        <v>304</v>
+      </c>
+      <c r="N3" s="15">
+        <v>72</v>
+      </c>
+      <c r="O3" s="15"/>
     </row>
-    <row r="4" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
+    <row r="4" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
         <v>30</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>12</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>22</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>30</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="13">
         <v>376</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <v>948</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="13">
         <v>1089</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="13">
         <v>525</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="13">
         <v>167</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="13">
         <v>381</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="13">
         <v>549</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="13">
         <v>427</v>
       </c>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
+      <c r="M4" s="13">
+        <v>180</v>
+      </c>
+      <c r="N4" s="13">
+        <v>10</v>
+      </c>
+      <c r="O4" s="13"/>
     </row>
-    <row r="5" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="15">
+    <row r="5" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
         <v>45</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="15">
         <v>14</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="15">
         <v>14</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <v>210</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <v>713</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="15">
         <v>1119</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="15">
         <v>771</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="15">
         <v>243</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="15">
         <v>275</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="15">
         <v>519</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="15">
         <v>472</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="15">
         <v>224</v>
       </c>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
+      <c r="M5" s="15">
+        <v>49</v>
+      </c>
+      <c r="N5" s="15">
+        <v>9</v>
+      </c>
+      <c r="O5" s="15"/>
     </row>
-    <row r="6" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
+    <row r="6" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
         <v>60</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>15</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>74</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>735</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="13">
         <v>1000</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="13">
         <v>1010</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="13">
         <v>486</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="13">
         <v>259</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="13">
         <v>493</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="13">
         <v>523</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="13">
         <v>295</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="13">
         <v>53</v>
       </c>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
+      <c r="M6" s="13">
+        <v>6</v>
+      </c>
+      <c r="N6" s="13">
+        <v>3</v>
+      </c>
+      <c r="O6" s="13"/>
     </row>
-    <row r="7" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="15">
+    <row r="7" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="14">
         <v>75</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="15">
         <v>17</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="15">
         <v>228</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="15">
         <v>745</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="15">
         <v>1177</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="15">
         <v>927</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="15">
         <v>435</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="15">
         <v>416</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="15">
         <v>571</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="15">
         <v>322</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="15">
         <v>82</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="15">
         <v>12</v>
       </c>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
+      <c r="M7" s="15">
+        <v>5</v>
+      </c>
+      <c r="N7" s="15">
+        <v>2</v>
+      </c>
+      <c r="O7" s="15"/>
+      <c r="T7">
+        <v>1922</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
+    <row r="8" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
         <v>90</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <v>57</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <v>359</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <v>903</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="13">
         <v>1182</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="13">
         <v>822</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="13">
         <v>420</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="13">
         <v>554</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="13">
         <v>373</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="13">
         <v>106</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="13">
         <v>15</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="13">
         <v>10</v>
       </c>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
+      <c r="M8" s="13">
+        <v>3</v>
+      </c>
+      <c r="N8" s="13">
+        <v>2</v>
+      </c>
+      <c r="O8" s="13"/>
+      <c r="T8">
+        <v>906</v>
+      </c>
     </row>
-    <row r="9" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="15">
+    <row r="9" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="14">
         <v>105</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="15">
         <v>94</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="15">
         <v>412</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="15">
         <v>922</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="15">
         <v>1266</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="15">
         <v>1048</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="15">
         <v>782</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="15">
         <v>412</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="15">
         <v>118</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="15">
         <v>5</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="15">
         <v>6</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="15">
         <v>6</v>
       </c>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
+      <c r="M9" s="15">
+        <v>1</v>
+      </c>
+      <c r="N9" s="15">
+        <v>4</v>
+      </c>
+      <c r="O9" s="15"/>
+      <c r="T9">
+        <v>19</v>
+      </c>
     </row>
-    <row r="10" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="13">
+    <row r="10" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
         <f>A9+15</f>
         <v>120</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>64</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>375</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <v>873</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="13">
         <v>1403</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="13">
         <v>1276</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="13">
         <v>743</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="13">
         <v>208</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="13">
         <v>24</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="13">
         <v>16</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="13">
         <v>6</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="13">
         <v>4</v>
       </c>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
+      <c r="M10" s="13">
+        <v>3</v>
+      </c>
+      <c r="N10" s="13">
+        <v>1</v>
+      </c>
+      <c r="O10" s="13"/>
     </row>
-    <row r="11" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="13">
+    <row r="11" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
         <f t="shared" ref="A11:A25" si="0">A10+15</f>
         <v>135</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="15">
         <v>24</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="15">
         <v>228</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="15">
         <v>801</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <v>1437</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="15">
         <v>1367</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="15">
         <v>665</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="15">
         <v>208</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="15">
         <v>20</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="15">
         <v>12</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="15">
         <v>7</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="15">
         <v>6</v>
       </c>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
+      <c r="M11" s="15">
+        <v>4</v>
+      </c>
+      <c r="N11" s="15">
+        <v>1</v>
+      </c>
+      <c r="O11" s="15"/>
     </row>
-    <row r="12" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="13">
+    <row r="12" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>21</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <v>193</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <v>781</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <v>1298</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="13">
         <v>1436</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="13">
         <v>941</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="13">
         <v>430</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="13">
         <v>117</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="13">
         <v>18</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="13">
         <v>10</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="13">
         <v>7</v>
       </c>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
+      <c r="M12" s="13">
+        <v>3</v>
+      </c>
+      <c r="N12" s="13">
+        <v>3</v>
+      </c>
+      <c r="O12" s="13"/>
     </row>
-    <row r="13" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="13">
+    <row r="13" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
         <f t="shared" si="0"/>
         <v>165</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="15">
         <v>83</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="15">
         <v>302</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="15">
         <v>701</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="15">
         <v>1049</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="15">
         <v>1149</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="15">
         <v>1168</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="15">
         <v>859</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="15">
         <v>419</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="15">
         <v>112</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13" s="15">
         <v>13</v>
       </c>
-      <c r="L13" s="16">
+      <c r="L13" s="15">
         <v>9</v>
       </c>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
+      <c r="M13" s="15">
+        <v>5</v>
+      </c>
+      <c r="N13" s="15">
+        <v>4</v>
+      </c>
+      <c r="O13" s="15"/>
     </row>
-    <row r="14" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="13">
+    <row r="14" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="13">
         <v>167</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="13">
         <v>421</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="13">
         <v>618</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="13">
         <v>637</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="13">
         <v>747</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="13">
         <v>996</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="13">
         <v>1127</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="13">
         <v>874</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="13">
         <v>454</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="13">
         <v>111</v>
       </c>
-      <c r="L14" s="14">
+      <c r="L14" s="13">
         <v>15</v>
       </c>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
+      <c r="M14" s="13">
+        <v>10</v>
+      </c>
+      <c r="N14" s="13">
+        <v>9</v>
+      </c>
+      <c r="O14" s="13"/>
     </row>
-    <row r="15" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="13">
+    <row r="15" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
         <f t="shared" si="0"/>
         <v>195</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="15">
         <v>174</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="15">
         <v>440</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="15">
         <v>647</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="15">
         <v>451</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="15">
         <v>387</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="15">
         <v>596</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="15">
         <v>904</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I15" s="15">
         <v>1095</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J15" s="15">
         <v>824</v>
       </c>
-      <c r="K15" s="16">
+      <c r="K15" s="15">
         <v>421</v>
       </c>
-      <c r="L15" s="16">
+      <c r="L15" s="15">
         <v>82</v>
       </c>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
+      <c r="M15" s="15">
+        <v>14</v>
+      </c>
+      <c r="N15" s="15">
+        <v>7</v>
+      </c>
+      <c r="O15" s="15"/>
     </row>
-    <row r="16" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="13">
+    <row r="16" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="13">
         <v>144</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="13">
         <v>414</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="13">
         <v>573</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="13">
         <v>556</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="13">
         <v>274</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="13">
         <v>272</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="13">
         <v>529</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="13">
         <v>1019</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="13">
         <v>1117</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K16" s="13">
         <v>808</v>
       </c>
-      <c r="L16" s="14">
+      <c r="L16" s="13">
         <v>344</v>
       </c>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
+      <c r="M16" s="13">
+        <v>72</v>
+      </c>
+      <c r="N16" s="13">
+        <v>5</v>
+      </c>
+      <c r="O16" s="13"/>
     </row>
     <row r="17" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="13">
+      <c r="A17" s="12">
         <f t="shared" si="0"/>
         <v>225</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="15">
         <v>58</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="15">
         <v>281</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="15">
         <v>523</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="15">
         <v>600</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="15">
         <v>540</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="15">
         <v>196</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H17" s="15">
         <v>282</v>
       </c>
-      <c r="I17" s="16">
+      <c r="I17" s="15">
         <v>694</v>
       </c>
-      <c r="J17" s="16">
+      <c r="J17" s="15">
         <v>1062</v>
       </c>
-      <c r="K17" s="16">
+      <c r="K17" s="15">
         <v>1009</v>
       </c>
-      <c r="L17" s="16">
+      <c r="L17" s="15">
         <v>653</v>
       </c>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
+      <c r="M17" s="15">
+        <v>237</v>
+      </c>
+      <c r="N17" s="15">
+        <v>38</v>
+      </c>
+      <c r="O17" s="15"/>
     </row>
     <row r="18" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="13">
+      <c r="A18" s="12">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="13">
         <v>17</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="13">
         <v>116</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="13">
         <v>304</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="13">
         <v>540</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="13">
         <v>581</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="13">
         <v>430</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="13">
         <v>219</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="13">
         <v>488</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="13">
         <v>894</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K18" s="13">
         <v>1094</v>
       </c>
-      <c r="L18" s="14">
+      <c r="L18" s="13">
         <v>729</v>
       </c>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
+      <c r="M18" s="13">
+        <v>431</v>
+      </c>
+      <c r="N18" s="13">
+        <v>90</v>
+      </c>
+      <c r="O18" s="13"/>
     </row>
     <row r="19" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="13">
+      <c r="A19" s="12">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="15">
         <v>2</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="15">
         <v>16</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="15">
         <v>127</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="15">
         <v>312</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="15">
         <v>474</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="15">
         <v>552</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H19" s="15">
         <v>412</v>
       </c>
-      <c r="I19" s="16">
+      <c r="I19" s="15">
         <v>430</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J19" s="15">
         <v>748</v>
       </c>
-      <c r="K19" s="16">
+      <c r="K19" s="15">
         <v>1222</v>
       </c>
-      <c r="L19" s="16">
+      <c r="L19" s="15">
         <v>870</v>
       </c>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
+      <c r="M19" s="15">
+        <v>499</v>
+      </c>
+      <c r="N19" s="15">
+        <v>99</v>
+      </c>
+      <c r="O19" s="15"/>
     </row>
     <row r="20" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="13">
+      <c r="A20" s="12">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="13">
         <v>6</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="13">
         <v>8</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="13">
         <v>13</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="13">
         <v>101</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="13">
         <v>281</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="13">
         <v>486</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="13">
         <v>595</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="13">
         <v>663</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="13">
         <v>904</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K20" s="13">
         <v>1225</v>
       </c>
-      <c r="L20" s="14">
+      <c r="L20" s="13">
         <v>851</v>
       </c>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
+      <c r="M20" s="13">
+        <v>460</v>
+      </c>
+      <c r="N20" s="13">
+        <v>59</v>
+      </c>
+      <c r="O20" s="13"/>
     </row>
     <row r="21" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="13">
+      <c r="A21" s="12">
         <f t="shared" si="0"/>
         <v>285</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="15">
         <v>1</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="15">
         <v>3</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="15">
         <v>9</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="15">
         <v>11</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="15">
         <v>134</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G21" s="15">
         <v>261</v>
       </c>
-      <c r="H21" s="16">
+      <c r="H21" s="15">
         <v>471</v>
       </c>
-      <c r="I21" s="16">
+      <c r="I21" s="15">
         <v>854</v>
       </c>
-      <c r="J21" s="16">
+      <c r="J21" s="15">
         <v>1182</v>
       </c>
-      <c r="K21" s="16">
+      <c r="K21" s="15">
         <v>1401</v>
       </c>
-      <c r="L21" s="16">
+      <c r="L21" s="15">
         <v>832</v>
       </c>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
+      <c r="M21" s="15">
+        <v>314</v>
+      </c>
+      <c r="N21" s="15">
+        <v>42</v>
+      </c>
+      <c r="O21" s="15"/>
     </row>
     <row r="22" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="13">
+      <c r="A22" s="12">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="13">
         <v>1</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="13">
         <v>7</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="13">
         <v>4</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="13">
         <v>9</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="13">
         <v>7</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="13">
         <v>52</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="13">
         <v>230</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I22" s="13">
         <v>776</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J22" s="13">
         <v>1393</v>
       </c>
-      <c r="K22" s="14">
+      <c r="K22" s="13">
         <v>1417</v>
       </c>
-      <c r="L22" s="14">
+      <c r="L22" s="13">
         <v>771</v>
       </c>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
+      <c r="M22" s="13">
+        <v>239</v>
+      </c>
+      <c r="N22" s="13">
+        <v>23</v>
+      </c>
+      <c r="O22" s="13"/>
     </row>
     <row r="23" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="13">
+      <c r="A23" s="12">
         <f t="shared" si="0"/>
         <v>315</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="15">
         <v>2</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="15">
         <v>7</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="15">
         <v>4</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="15">
         <v>7</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="15">
         <v>8</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G23" s="15">
         <v>12</v>
       </c>
-      <c r="H23" s="16">
+      <c r="H23" s="15">
         <v>199</v>
       </c>
-      <c r="I23" s="16">
+      <c r="I23" s="15">
         <v>755</v>
       </c>
-      <c r="J23" s="16">
+      <c r="J23" s="15">
         <v>1385</v>
       </c>
-      <c r="K23" s="16">
+      <c r="K23" s="15">
         <v>1302</v>
       </c>
-      <c r="L23" s="16">
+      <c r="L23" s="15">
         <v>769</v>
       </c>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
+      <c r="M23" s="15">
+        <v>300</v>
+      </c>
+      <c r="N23" s="15">
+        <v>109</v>
+      </c>
+      <c r="O23" s="15"/>
     </row>
     <row r="24" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="13">
+      <c r="A24" s="12">
         <f t="shared" si="0"/>
         <v>330</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="13">
         <v>4</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="13">
         <v>8</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="13">
         <v>9</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="13">
         <v>7</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="13">
         <v>11</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="13">
         <v>49</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="13">
         <v>477</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I24" s="13">
         <v>1044</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="13">
         <v>1227</v>
       </c>
-      <c r="K24" s="14">
+      <c r="K24" s="13">
         <v>1056</v>
       </c>
-      <c r="L24" s="14">
+      <c r="L24" s="13">
         <v>663</v>
       </c>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
+      <c r="M24" s="13">
+        <v>412</v>
+      </c>
+      <c r="N24" s="13">
+        <v>185</v>
+      </c>
+      <c r="O24" s="13"/>
     </row>
     <row r="25" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="13">
+      <c r="A25" s="12">
         <f t="shared" si="0"/>
         <v>345</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="15">
         <v>7</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="15">
         <v>6</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="15">
         <v>9</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="15">
         <v>8</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="15">
         <v>9</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G25" s="15">
         <v>293</v>
       </c>
-      <c r="H25" s="16">
+      <c r="H25" s="15">
         <v>905</v>
       </c>
-      <c r="I25" s="16">
+      <c r="I25" s="15">
         <v>1119</v>
       </c>
-      <c r="J25" s="16">
+      <c r="J25" s="15">
         <v>917</v>
       </c>
-      <c r="K25" s="16">
+      <c r="K25" s="15">
         <v>654</v>
       </c>
-      <c r="L25" s="16">
+      <c r="L25" s="15">
         <v>637</v>
       </c>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
+      <c r="M25" s="15">
+        <v>442</v>
+      </c>
+      <c r="N25" s="15">
+        <v>208</v>
+      </c>
+      <c r="O25" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C487E0-6A7E-45A6-A3D2-7D9DDE4CD13B}">
+  <dimension ref="A3:N66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="19">
+        <v>0</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19">
+        <v>6049</v>
+      </c>
+      <c r="E4" s="19">
+        <v>6131</v>
+      </c>
+      <c r="F4" s="19">
+        <v>1721</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="M4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="20"/>
+      <c r="B5" s="19">
+        <v>1</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19">
+        <v>6177</v>
+      </c>
+      <c r="E5" s="19">
+        <v>6592</v>
+      </c>
+      <c r="F5" s="19">
+        <v>1826</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="M5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="20"/>
+      <c r="B6" s="19">
+        <v>2</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19">
+        <v>6323</v>
+      </c>
+      <c r="E6" s="19">
+        <v>6503</v>
+      </c>
+      <c r="F6" s="19">
+        <v>1379</v>
+      </c>
+      <c r="G6" s="18">
+        <f>N5</f>
+        <v>1.58</v>
+      </c>
+      <c r="H6" s="5">
+        <v>6282</v>
+      </c>
+      <c r="I6" s="5">
+        <v>6408</v>
+      </c>
+      <c r="J6" s="5">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="20"/>
+      <c r="B7" s="18">
+        <v>3</v>
+      </c>
+      <c r="C7" s="18">
+        <f>B7*N4</f>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="D7" s="5">
+        <v>6152</v>
+      </c>
+      <c r="E7" s="5">
+        <v>6569</v>
+      </c>
+      <c r="F7" s="5">
+        <v>654</v>
+      </c>
+      <c r="G7" s="18">
+        <f>G6*2</f>
+        <v>3.16</v>
+      </c>
+      <c r="H7" s="5">
+        <v>6322</v>
+      </c>
+      <c r="I7" s="5">
+        <v>6575</v>
+      </c>
+      <c r="J7" s="5">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="20"/>
+      <c r="B8" s="18">
+        <v>4</v>
+      </c>
+      <c r="C8" s="18">
+        <f>B8*N4</f>
+        <v>19.2</v>
+      </c>
+      <c r="D8" s="5">
+        <v>6021</v>
+      </c>
+      <c r="E8" s="5">
+        <v>6407</v>
+      </c>
+      <c r="F8" s="5">
+        <v>237</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="20"/>
+      <c r="B9" s="18">
+        <v>0</v>
+      </c>
+      <c r="C9" s="18">
+        <f>B9*N4</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>6221</v>
+      </c>
+      <c r="E9" s="5">
+        <v>6542</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2058</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="20"/>
+      <c r="B10" s="18">
+        <v>1</v>
+      </c>
+      <c r="C10" s="18">
+        <f>B10*N4</f>
+        <v>4.8</v>
+      </c>
+      <c r="D10" s="5">
+        <v>6314</v>
+      </c>
+      <c r="E10" s="5">
+        <v>6400</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1772</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="20"/>
+      <c r="B11" s="18">
+        <v>2</v>
+      </c>
+      <c r="C11" s="18">
+        <f>B11*N4</f>
+        <v>9.6</v>
+      </c>
+      <c r="D11" s="5">
+        <v>6440</v>
+      </c>
+      <c r="E11" s="5">
+        <v>6508</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1257</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="18">
+        <v>0</v>
+      </c>
+      <c r="C12" s="18">
+        <f>B12*N4</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>6134</v>
+      </c>
+      <c r="E12" s="5">
+        <v>6348</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1927</v>
+      </c>
+      <c r="G12" s="18">
+        <f>N5</f>
+        <v>1.58</v>
+      </c>
+      <c r="H12" s="5">
+        <v>6307</v>
+      </c>
+      <c r="I12" s="5">
+        <v>6463</v>
+      </c>
+      <c r="J12" s="5">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="20"/>
+      <c r="B13" s="18">
+        <v>1</v>
+      </c>
+      <c r="C13" s="18">
+        <f>B13*N4</f>
+        <v>4.8</v>
+      </c>
+      <c r="D13" s="5">
+        <v>6505</v>
+      </c>
+      <c r="E13" s="5">
+        <v>6256</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1846</v>
+      </c>
+      <c r="G13" s="18">
+        <f>G12*2</f>
+        <v>3.16</v>
+      </c>
+      <c r="H13" s="5">
+        <v>6102</v>
+      </c>
+      <c r="I13" s="5">
+        <v>6446</v>
+      </c>
+      <c r="J13" s="5">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="20"/>
+      <c r="B14" s="18">
+        <v>2</v>
+      </c>
+      <c r="C14" s="18">
+        <f>B14*N4</f>
+        <v>9.6</v>
+      </c>
+      <c r="D14" s="5">
+        <v>6275</v>
+      </c>
+      <c r="E14" s="5">
+        <v>6286</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1256</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="20"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18">
+        <f>B15*N12</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="20"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18">
+        <f>B16*N12</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="20"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18">
+        <f>B17*N12</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="20"/>
+      <c r="B18" s="18">
+        <v>3</v>
+      </c>
+      <c r="C18" s="18">
+        <f>B18*N4</f>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="D18" s="5">
+        <v>6162</v>
+      </c>
+      <c r="E18" s="5">
+        <v>6334</v>
+      </c>
+      <c r="F18" s="5">
+        <v>733</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="20"/>
+      <c r="B19" s="18">
+        <v>4</v>
+      </c>
+      <c r="C19" s="18">
+        <f>B19*N4</f>
+        <v>19.2</v>
+      </c>
+      <c r="D19" s="5">
+        <v>6189</v>
+      </c>
+      <c r="E19" s="5">
+        <v>6447</v>
+      </c>
+      <c r="F19" s="5">
+        <v>282</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>2058</v>
+      </c>
+      <c r="E23">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>1.58</v>
+      </c>
+      <c r="D24">
+        <v>1972</v>
+      </c>
+      <c r="E24">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>3.16</v>
+      </c>
+      <c r="D25">
+        <v>1910</v>
+      </c>
+      <c r="E25">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>4.8</v>
+      </c>
+      <c r="D26">
+        <v>1772</v>
+      </c>
+      <c r="E26">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>9.6</v>
+      </c>
+      <c r="D27">
+        <v>1257</v>
+      </c>
+      <c r="E27">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>14.4</v>
+      </c>
+      <c r="D28">
+        <v>654</v>
+      </c>
+      <c r="E28">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>19.2</v>
+      </c>
+      <c r="D29">
+        <v>237</v>
+      </c>
+      <c r="E29">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C57">
+        <v>2276</v>
+      </c>
+      <c r="D57">
+        <v>4334</v>
+      </c>
+      <c r="E57">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C58">
+        <v>2684</v>
+      </c>
+      <c r="D58">
+        <v>3809</v>
+      </c>
+      <c r="E58">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C59">
+        <v>3023</v>
+      </c>
+      <c r="D59">
+        <v>3227</v>
+      </c>
+      <c r="E59">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C60">
+        <v>3517</v>
+      </c>
+      <c r="D60">
+        <v>2809</v>
+      </c>
+      <c r="E60">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C61">
+        <v>4266</v>
+      </c>
+      <c r="D61">
+        <v>3484</v>
+      </c>
+      <c r="E61">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C62">
+        <v>4170</v>
+      </c>
+      <c r="D62">
+        <v>2394</v>
+      </c>
+      <c r="E62">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C63">
+        <v>3573</v>
+      </c>
+      <c r="D63">
+        <v>2732</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C64">
+        <v>3149</v>
+      </c>
+      <c r="D64">
+        <v>3144</v>
+      </c>
+      <c r="E64">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C65">
+        <v>2750</v>
+      </c>
+      <c r="D65">
+        <v>3716</v>
+      </c>
+      <c r="E65">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C66">
+        <v>2331</v>
+      </c>
+      <c r="D66">
+        <v>4393</v>
+      </c>
+      <c r="E66">
+        <v>432</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Sessao_5/dados.xlsx
+++ b/Sessao_5/dados.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Uni\Ano_3\Semestre_1\P1\LFEA_II\LFEA_II\Sessao_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818E063F-45AE-4015-85B9-7AC03BC4BE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AECB087-9EFE-4E18-B630-17A1E6C63438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sinograma" sheetId="1" r:id="rId1"/>
     <sheet name="dados" sheetId="2" r:id="rId2"/>
-    <sheet name="Folha1" sheetId="3" r:id="rId3"/>
+    <sheet name="altura" sheetId="3" r:id="rId3"/>
+    <sheet name="10" sheetId="4" r:id="rId4"/>
+    <sheet name="5" sheetId="5" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>Δt  [s]</t>
   </si>
@@ -136,6 +138,24 @@
   <si>
     <t>moeda</t>
   </si>
+  <si>
+    <t>h [mm]</t>
+  </si>
+  <si>
+    <t>Rc</t>
+  </si>
+  <si>
+    <t>eRc</t>
+  </si>
+  <si>
+    <t>Rc corr</t>
+  </si>
+  <si>
+    <t>eRc Corr</t>
+  </si>
+  <si>
+    <t>eRc corr</t>
+  </si>
 </sst>
 </file>
 
@@ -180,7 +200,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,12 +285,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -284,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -330,16 +344,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6610,7 +6628,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Folha1!$C$23:$C$29</c:f>
+              <c:f>altura!$C$25:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -6640,7 +6658,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Folha1!$D$23:$D$29</c:f>
+              <c:f>altura!$D$25:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -6695,7 +6713,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Folha1!$C$23:$C$29</c:f>
+              <c:f>altura!$C$25:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -6725,7 +6743,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Folha1!$E$23:$E$29</c:f>
+              <c:f>altura!$E$25:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -7603,16 +7621,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7704,6 +7722,7 @@
           <cell r="B15">
             <v>0</v>
           </cell>
+          <cell r="C15"/>
           <cell r="D15">
             <v>4</v>
           </cell>
@@ -7737,11 +7756,15 @@
           <cell r="N15">
             <v>612</v>
           </cell>
+          <cell r="O15"/>
+          <cell r="P15"/>
+          <cell r="Q15"/>
         </row>
         <row r="16">
           <cell r="B16">
             <v>15</v>
           </cell>
+          <cell r="C16"/>
           <cell r="D16">
             <v>7</v>
           </cell>
@@ -7775,11 +7798,15 @@
           <cell r="N16">
             <v>535</v>
           </cell>
+          <cell r="O16"/>
+          <cell r="P16"/>
+          <cell r="Q16"/>
         </row>
         <row r="17">
           <cell r="B17">
             <v>30</v>
           </cell>
+          <cell r="C17"/>
           <cell r="D17">
             <v>12</v>
           </cell>
@@ -7813,11 +7840,15 @@
           <cell r="N17">
             <v>427</v>
           </cell>
+          <cell r="O17"/>
+          <cell r="P17"/>
+          <cell r="Q17"/>
         </row>
         <row r="18">
           <cell r="B18">
             <v>45</v>
           </cell>
+          <cell r="C18"/>
           <cell r="D18">
             <v>14</v>
           </cell>
@@ -7851,11 +7882,15 @@
           <cell r="N18">
             <v>224</v>
           </cell>
+          <cell r="O18"/>
+          <cell r="P18"/>
+          <cell r="Q18"/>
         </row>
         <row r="19">
           <cell r="B19">
             <v>60</v>
           </cell>
+          <cell r="C19"/>
           <cell r="D19">
             <v>15</v>
           </cell>
@@ -7889,11 +7924,15 @@
           <cell r="N19">
             <v>53</v>
           </cell>
+          <cell r="O19"/>
+          <cell r="P19"/>
+          <cell r="Q19"/>
         </row>
         <row r="20">
           <cell r="B20">
             <v>75</v>
           </cell>
+          <cell r="C20"/>
           <cell r="D20">
             <v>17</v>
           </cell>
@@ -7927,11 +7966,15 @@
           <cell r="N20">
             <v>12</v>
           </cell>
+          <cell r="O20"/>
+          <cell r="P20"/>
+          <cell r="Q20"/>
         </row>
         <row r="21">
           <cell r="B21">
             <v>90</v>
           </cell>
+          <cell r="C21"/>
           <cell r="D21">
             <v>57</v>
           </cell>
@@ -7965,11 +8008,15 @@
           <cell r="N21">
             <v>10</v>
           </cell>
+          <cell r="O21"/>
+          <cell r="P21"/>
+          <cell r="Q21"/>
         </row>
         <row r="22">
           <cell r="B22">
             <v>105</v>
           </cell>
+          <cell r="C22"/>
           <cell r="D22">
             <v>94</v>
           </cell>
@@ -8003,11 +8050,15 @@
           <cell r="N22">
             <v>6</v>
           </cell>
+          <cell r="O22"/>
+          <cell r="P22"/>
+          <cell r="Q22"/>
         </row>
         <row r="23">
           <cell r="B23">
             <v>120</v>
           </cell>
+          <cell r="C23"/>
           <cell r="D23">
             <v>64</v>
           </cell>
@@ -8041,11 +8092,15 @@
           <cell r="N23">
             <v>4</v>
           </cell>
+          <cell r="O23"/>
+          <cell r="P23"/>
+          <cell r="Q23"/>
         </row>
         <row r="24">
           <cell r="B24">
             <v>135</v>
           </cell>
+          <cell r="C24"/>
           <cell r="D24">
             <v>24</v>
           </cell>
@@ -8079,11 +8134,15 @@
           <cell r="N24">
             <v>6</v>
           </cell>
+          <cell r="O24"/>
+          <cell r="P24"/>
+          <cell r="Q24"/>
         </row>
         <row r="25">
           <cell r="B25">
             <v>150</v>
           </cell>
+          <cell r="C25"/>
           <cell r="D25">
             <v>21</v>
           </cell>
@@ -8117,11 +8176,15 @@
           <cell r="N25">
             <v>7</v>
           </cell>
+          <cell r="O25"/>
+          <cell r="P25"/>
+          <cell r="Q25"/>
         </row>
         <row r="26">
           <cell r="B26">
             <v>165</v>
           </cell>
+          <cell r="C26"/>
           <cell r="D26">
             <v>83</v>
           </cell>
@@ -8155,11 +8218,15 @@
           <cell r="N26">
             <v>9</v>
           </cell>
+          <cell r="O26"/>
+          <cell r="P26"/>
+          <cell r="Q26"/>
         </row>
         <row r="27">
           <cell r="B27">
             <v>180</v>
           </cell>
+          <cell r="C27"/>
           <cell r="D27">
             <v>167</v>
           </cell>
@@ -8193,11 +8260,15 @@
           <cell r="N27">
             <v>15</v>
           </cell>
+          <cell r="O27"/>
+          <cell r="P27"/>
+          <cell r="Q27"/>
         </row>
         <row r="28">
           <cell r="B28">
             <v>195</v>
           </cell>
+          <cell r="C28"/>
           <cell r="D28">
             <v>174</v>
           </cell>
@@ -8231,11 +8302,15 @@
           <cell r="N28">
             <v>82</v>
           </cell>
+          <cell r="O28"/>
+          <cell r="P28"/>
+          <cell r="Q28"/>
         </row>
         <row r="29">
           <cell r="B29">
             <v>210</v>
           </cell>
+          <cell r="C29"/>
           <cell r="D29">
             <v>144</v>
           </cell>
@@ -8269,11 +8344,15 @@
           <cell r="N29">
             <v>344</v>
           </cell>
+          <cell r="O29"/>
+          <cell r="P29"/>
+          <cell r="Q29"/>
         </row>
         <row r="30">
           <cell r="B30">
             <v>225</v>
           </cell>
+          <cell r="C30"/>
           <cell r="D30">
             <v>58</v>
           </cell>
@@ -8307,11 +8386,15 @@
           <cell r="N30">
             <v>653</v>
           </cell>
+          <cell r="O30"/>
+          <cell r="P30"/>
+          <cell r="Q30"/>
         </row>
         <row r="31">
           <cell r="B31">
             <v>240</v>
           </cell>
+          <cell r="C31"/>
           <cell r="D31">
             <v>17</v>
           </cell>
@@ -8345,11 +8428,15 @@
           <cell r="N31">
             <v>729</v>
           </cell>
+          <cell r="O31"/>
+          <cell r="P31"/>
+          <cell r="Q31"/>
         </row>
         <row r="32">
           <cell r="B32">
             <v>255</v>
           </cell>
+          <cell r="C32"/>
           <cell r="D32">
             <v>2</v>
           </cell>
@@ -8383,11 +8470,15 @@
           <cell r="N32">
             <v>870</v>
           </cell>
+          <cell r="O32"/>
+          <cell r="P32"/>
+          <cell r="Q32"/>
         </row>
         <row r="33">
           <cell r="B33">
             <v>270</v>
           </cell>
+          <cell r="C33"/>
           <cell r="D33">
             <v>6</v>
           </cell>
@@ -8421,11 +8512,15 @@
           <cell r="N33">
             <v>851</v>
           </cell>
+          <cell r="O33"/>
+          <cell r="P33"/>
+          <cell r="Q33"/>
         </row>
         <row r="34">
           <cell r="B34">
             <v>285</v>
           </cell>
+          <cell r="C34"/>
           <cell r="D34">
             <v>1</v>
           </cell>
@@ -8459,11 +8554,15 @@
           <cell r="N34">
             <v>832</v>
           </cell>
+          <cell r="O34"/>
+          <cell r="P34"/>
+          <cell r="Q34"/>
         </row>
         <row r="35">
           <cell r="B35">
             <v>300</v>
           </cell>
+          <cell r="C35"/>
           <cell r="D35">
             <v>1</v>
           </cell>
@@ -8497,11 +8596,15 @@
           <cell r="N35">
             <v>771</v>
           </cell>
+          <cell r="O35"/>
+          <cell r="P35"/>
+          <cell r="Q35"/>
         </row>
         <row r="36">
           <cell r="B36">
             <v>315</v>
           </cell>
+          <cell r="C36"/>
           <cell r="D36">
             <v>2</v>
           </cell>
@@ -8535,11 +8638,15 @@
           <cell r="N36">
             <v>769</v>
           </cell>
+          <cell r="O36"/>
+          <cell r="P36"/>
+          <cell r="Q36"/>
         </row>
         <row r="37">
           <cell r="B37">
             <v>330</v>
           </cell>
+          <cell r="C37"/>
           <cell r="D37">
             <v>4</v>
           </cell>
@@ -8573,11 +8680,15 @@
           <cell r="N37">
             <v>663</v>
           </cell>
+          <cell r="O37"/>
+          <cell r="P37"/>
+          <cell r="Q37"/>
         </row>
         <row r="38">
           <cell r="B38">
             <v>345</v>
           </cell>
+          <cell r="C38"/>
           <cell r="D38">
             <v>7</v>
           </cell>
@@ -8611,6 +8722,9 @@
           <cell r="N38">
             <v>637</v>
           </cell>
+          <cell r="O38"/>
+          <cell r="P38"/>
+          <cell r="Q38"/>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
@@ -8885,7 +8999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AJ50"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
@@ -8957,9 +9071,9 @@
       <c r="B13" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="AH13" s="17"/>
-      <c r="AI13" s="17"/>
-      <c r="AJ13" s="17"/>
+      <c r="AH13" s="18"/>
+      <c r="AI13" s="18"/>
+      <c r="AJ13" s="18"/>
     </row>
     <row r="14" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="10"/>
@@ -10199,7 +10313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA18141-E92E-4CF0-BD47-38FE457E92C4}">
   <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
@@ -11363,10 +11477,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C487E0-6A7E-45A6-A3D2-7D9DDE4CD13B}">
-  <dimension ref="A3:N66"/>
+  <dimension ref="A3:O66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11376,241 +11490,317 @@
     <col min="7" max="7" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18" t="s">
+      <c r="C3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="19">
-        <v>0</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19">
-        <v>6049</v>
-      </c>
-      <c r="E4" s="19">
-        <v>6131</v>
-      </c>
-      <c r="F4" s="19">
-        <v>1721</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="B4" s="17">
+        <v>3</v>
+      </c>
+      <c r="C4" s="17">
+        <f>B4*N4</f>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="D4" s="5">
+        <v>6152</v>
+      </c>
+      <c r="E4" s="5">
+        <v>6569</v>
+      </c>
+      <c r="F4" s="5">
+        <v>654</v>
+      </c>
+      <c r="G4" s="21">
+        <f>F4/20</f>
+        <v>32.700000000000003</v>
+      </c>
+      <c r="H4" s="21">
+        <f>SQRT(F4)/20</f>
+        <v>1.2786711852544421</v>
+      </c>
+      <c r="I4" s="21">
+        <f>G4-0.1689</f>
+        <v>32.531100000000002</v>
+      </c>
+      <c r="J4" s="21">
+        <f>SQRT(H4^2+0.0447^2)</f>
+        <v>1.2794522617120185</v>
+      </c>
       <c r="M4" t="s">
         <v>15</v>
       </c>
       <c r="N4">
         <v>4.8</v>
       </c>
+      <c r="O4">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
-      <c r="B5" s="19">
-        <v>1</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19">
-        <v>6177</v>
-      </c>
-      <c r="E5" s="19">
-        <v>6592</v>
-      </c>
-      <c r="F5" s="19">
-        <v>1826</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="B5" s="17">
+        <v>4</v>
+      </c>
+      <c r="C5" s="17">
+        <f>B5*N4</f>
+        <v>19.2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>6021</v>
+      </c>
+      <c r="E5" s="5">
+        <v>6407</v>
+      </c>
+      <c r="F5" s="5">
+        <v>237</v>
+      </c>
+      <c r="G5" s="21">
+        <f t="shared" ref="G5:G21" si="0">F5/20</f>
+        <v>11.85</v>
+      </c>
+      <c r="H5" s="21">
+        <f t="shared" ref="H5:H10" si="1">SQRT(F5)/20</f>
+        <v>0.76974021591703257</v>
+      </c>
+      <c r="I5" s="21">
+        <f t="shared" ref="I5:I10" si="2">G5-0.1689</f>
+        <v>11.681099999999999</v>
+      </c>
+      <c r="J5" s="21">
+        <f t="shared" ref="J5:J10" si="3">SQRT(H5^2+0.0447^2)</f>
+        <v>0.77103702245741734</v>
+      </c>
       <c r="M5" t="s">
         <v>16</v>
       </c>
       <c r="N5">
         <v>1.58</v>
       </c>
+      <c r="O5">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="20"/>
-      <c r="B6" s="19">
+      <c r="B6" s="17">
+        <v>0</v>
+      </c>
+      <c r="C6" s="17">
+        <f>B6*N4</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>6221</v>
+      </c>
+      <c r="E6" s="5">
+        <v>6542</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2058</v>
+      </c>
+      <c r="G6" s="21">
+        <f t="shared" si="0"/>
+        <v>102.9</v>
+      </c>
+      <c r="H6" s="21">
+        <f t="shared" si="1"/>
+        <v>2.268259244442751</v>
+      </c>
+      <c r="I6" s="21">
+        <f t="shared" si="2"/>
+        <v>102.73110000000001</v>
+      </c>
+      <c r="J6" s="21">
+        <f t="shared" si="3"/>
+        <v>2.2686996473751213</v>
+      </c>
+      <c r="K6" s="22"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="20"/>
+      <c r="B7" s="17">
+        <v>1</v>
+      </c>
+      <c r="C7" s="17">
+        <f>B7*N4</f>
+        <v>4.8</v>
+      </c>
+      <c r="D7" s="5">
+        <v>6314</v>
+      </c>
+      <c r="E7" s="5">
+        <v>6400</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1772</v>
+      </c>
+      <c r="G7" s="21">
+        <f t="shared" si="0"/>
+        <v>88.6</v>
+      </c>
+      <c r="H7" s="21">
+        <f t="shared" si="1"/>
+        <v>2.1047565179849186</v>
+      </c>
+      <c r="I7" s="21">
+        <f t="shared" si="2"/>
+        <v>88.431100000000001</v>
+      </c>
+      <c r="J7" s="21">
+        <f t="shared" si="3"/>
+        <v>2.1052311250786691</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="20"/>
+      <c r="B8" s="17">
         <v>2</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19">
-        <v>6323</v>
-      </c>
-      <c r="E6" s="19">
-        <v>6503</v>
-      </c>
-      <c r="F6" s="19">
-        <v>1379</v>
-      </c>
-      <c r="G6" s="18">
+      <c r="C8" s="17">
+        <f>B8*N4</f>
+        <v>9.6</v>
+      </c>
+      <c r="D8" s="5">
+        <v>6440</v>
+      </c>
+      <c r="E8" s="5">
+        <v>6508</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1257</v>
+      </c>
+      <c r="G8" s="21">
+        <f t="shared" si="0"/>
+        <v>62.85</v>
+      </c>
+      <c r="H8" s="21">
+        <f t="shared" si="1"/>
+        <v>1.7727097901235838</v>
+      </c>
+      <c r="I8" s="21">
+        <f t="shared" si="2"/>
+        <v>62.681100000000001</v>
+      </c>
+      <c r="J8" s="21">
+        <f t="shared" si="3"/>
+        <v>1.7732732699727924</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="20"/>
+      <c r="C9" s="17">
         <f>N5</f>
         <v>1.58</v>
       </c>
-      <c r="H6" s="5">
+      <c r="D9" s="5">
         <v>6282</v>
       </c>
-      <c r="I6" s="5">
+      <c r="E9" s="5">
         <v>6408</v>
       </c>
-      <c r="J6" s="5">
+      <c r="F9" s="5">
         <v>1972</v>
       </c>
+      <c r="G9" s="21">
+        <f t="shared" si="0"/>
+        <v>98.6</v>
+      </c>
+      <c r="H9" s="21">
+        <f t="shared" si="1"/>
+        <v>2.220360331117452</v>
+      </c>
+      <c r="I9" s="21">
+        <f t="shared" si="2"/>
+        <v>98.431100000000001</v>
+      </c>
+      <c r="J9" s="21">
+        <f t="shared" si="3"/>
+        <v>2.2208102327754169</v>
+      </c>
+      <c r="K9" s="22"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="18">
-        <v>3</v>
-      </c>
-      <c r="C7" s="18">
-        <f>B7*N4</f>
-        <v>14.399999999999999</v>
-      </c>
-      <c r="D7" s="5">
-        <v>6152</v>
-      </c>
-      <c r="E7" s="5">
-        <v>6569</v>
-      </c>
-      <c r="F7" s="5">
-        <v>654</v>
-      </c>
-      <c r="G7" s="18">
-        <f>G6*2</f>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="20"/>
+      <c r="C10" s="17">
+        <f>C9*2</f>
         <v>3.16</v>
       </c>
-      <c r="H7" s="5">
+      <c r="D10" s="5">
         <v>6322</v>
       </c>
-      <c r="I7" s="5">
+      <c r="E10" s="5">
         <v>6575</v>
       </c>
-      <c r="J7" s="5">
+      <c r="F10" s="5">
         <v>1910</v>
       </c>
+      <c r="G10" s="21">
+        <f t="shared" si="0"/>
+        <v>95.5</v>
+      </c>
+      <c r="H10" s="21">
+        <f t="shared" si="1"/>
+        <v>2.1851773383412159</v>
+      </c>
+      <c r="I10" s="21">
+        <f t="shared" si="2"/>
+        <v>95.331100000000006</v>
+      </c>
+      <c r="J10" s="21">
+        <f t="shared" si="3"/>
+        <v>2.1856344822499483</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
-      <c r="B8" s="18">
-        <v>4</v>
-      </c>
-      <c r="C8" s="18">
-        <f>B8*N4</f>
-        <v>19.2</v>
-      </c>
-      <c r="D8" s="5">
-        <v>6021</v>
-      </c>
-      <c r="E8" s="5">
-        <v>6407</v>
-      </c>
-      <c r="F8" s="5">
-        <v>237</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="18">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="17">
         <v>0</v>
       </c>
-      <c r="C9" s="18">
-        <f>B9*N4</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="5">
-        <v>6221</v>
-      </c>
-      <c r="E9" s="5">
-        <v>6542</v>
-      </c>
-      <c r="F9" s="5">
-        <v>2058</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
-      <c r="B10" s="18">
-        <v>1</v>
-      </c>
-      <c r="C10" s="18">
-        <f>B10*N4</f>
-        <v>4.8</v>
-      </c>
-      <c r="D10" s="5">
-        <v>6314</v>
-      </c>
-      <c r="E10" s="5">
-        <v>6400</v>
-      </c>
-      <c r="F10" s="5">
-        <v>1772</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
-      <c r="B11" s="18">
-        <v>2</v>
-      </c>
-      <c r="C11" s="18">
-        <f>B11*N4</f>
-        <v>9.6</v>
-      </c>
-      <c r="D11" s="5">
-        <v>6440</v>
-      </c>
-      <c r="E11" s="5">
-        <v>6508</v>
-      </c>
-      <c r="F11" s="5">
-        <v>1257</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="18">
-        <v>0</v>
-      </c>
-      <c r="C12" s="18">
+      <c r="C12" s="17">
         <f>B12*N4</f>
         <v>0</v>
       </c>
@@ -11623,26 +11813,29 @@
       <c r="F12" s="5">
         <v>1927</v>
       </c>
-      <c r="G12" s="18">
-        <f>N5</f>
-        <v>1.58</v>
-      </c>
-      <c r="H12" s="5">
-        <v>6307</v>
-      </c>
-      <c r="I12" s="5">
-        <v>6463</v>
-      </c>
-      <c r="J12" s="5">
-        <v>2018</v>
+      <c r="G12" s="21">
+        <f t="shared" si="0"/>
+        <v>96.35</v>
+      </c>
+      <c r="H12" s="21">
+        <f t="shared" ref="H11:H21" si="4">SQRT(F12)/20</f>
+        <v>2.1948804067647969</v>
+      </c>
+      <c r="I12" s="21">
+        <f t="shared" ref="I11:I21" si="5">G12-0.1689</f>
+        <v>96.181100000000001</v>
+      </c>
+      <c r="J12" s="21">
+        <f t="shared" ref="J11:J21" si="6">SQRT(H12^2+0.0447^2)</f>
+        <v>2.1953355301638973</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="18">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="19"/>
+      <c r="B13" s="17">
         <v>1</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="17">
         <f>B13*N4</f>
         <v>4.8</v>
       </c>
@@ -11655,26 +11848,29 @@
       <c r="F13" s="5">
         <v>1846</v>
       </c>
-      <c r="G13" s="18">
-        <f>G12*2</f>
-        <v>3.16</v>
-      </c>
-      <c r="H13" s="5">
-        <v>6102</v>
-      </c>
-      <c r="I13" s="5">
-        <v>6446</v>
-      </c>
-      <c r="J13" s="5">
-        <v>1877</v>
+      <c r="G13" s="21">
+        <f t="shared" si="0"/>
+        <v>92.3</v>
+      </c>
+      <c r="H13" s="21">
+        <f t="shared" si="4"/>
+        <v>2.1482551058940835</v>
+      </c>
+      <c r="I13" s="21">
+        <f t="shared" si="5"/>
+        <v>92.131100000000004</v>
+      </c>
+      <c r="J13" s="21">
+        <f t="shared" si="6"/>
+        <v>2.148720105085816</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
-      <c r="B14" s="18">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="19"/>
+      <c r="B14" s="17">
         <v>2</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="17">
         <f>B14*N4</f>
         <v>9.6</v>
       </c>
@@ -11687,62 +11883,110 @@
       <c r="F14" s="5">
         <v>1256</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
+      <c r="G14" s="21">
+        <f t="shared" si="0"/>
+        <v>62.8</v>
+      </c>
+      <c r="H14" s="21">
+        <f t="shared" si="4"/>
+        <v>1.772004514666935</v>
+      </c>
+      <c r="I14" s="21">
+        <f t="shared" si="5"/>
+        <v>62.631099999999996</v>
+      </c>
+      <c r="J14" s="21">
+        <f t="shared" si="6"/>
+        <v>1.7725682187154319</v>
+      </c>
     </row>
-    <row r="15" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18">
+    <row r="15" spans="1:15" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="19"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17">
         <f>B15*N12</f>
         <v>0</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+      <c r="G15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="21">
+        <f t="shared" si="5"/>
+        <v>-0.16889999999999999</v>
+      </c>
+      <c r="J15" s="21">
+        <f t="shared" si="6"/>
+        <v>4.4699999999999997E-2</v>
+      </c>
     </row>
-    <row r="16" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18">
+    <row r="16" spans="1:15" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="19"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17">
         <f>B16*N12</f>
         <v>0</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
+      <c r="G16" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="21">
+        <f t="shared" si="5"/>
+        <v>-0.16889999999999999</v>
+      </c>
+      <c r="J16" s="21">
+        <f t="shared" si="6"/>
+        <v>4.4699999999999997E-2</v>
+      </c>
     </row>
     <row r="17" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18">
+      <c r="A17" s="19"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17">
         <f>B17*N12</f>
         <v>0</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+      <c r="G17" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="21">
+        <f t="shared" si="5"/>
+        <v>-0.16889999999999999</v>
+      </c>
+      <c r="J17" s="21">
+        <f t="shared" si="6"/>
+        <v>4.4699999999999997E-2</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
-      <c r="B18" s="18">
+      <c r="A18" s="19"/>
+      <c r="B18" s="17">
         <v>3</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="17">
         <f>B18*N4</f>
         <v>14.399999999999999</v>
       </c>
@@ -11755,17 +11999,29 @@
       <c r="F18" s="5">
         <v>733</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="G18" s="21">
+        <f t="shared" si="0"/>
+        <v>36.65</v>
+      </c>
+      <c r="H18" s="21">
+        <f t="shared" si="4"/>
+        <v>1.3536986370680884</v>
+      </c>
+      <c r="I18" s="21">
+        <f t="shared" si="5"/>
+        <v>36.481099999999998</v>
+      </c>
+      <c r="J18" s="21">
+        <f t="shared" si="6"/>
+        <v>1.3544364473831911</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
-      <c r="B19" s="18">
+      <c r="A19" s="19"/>
+      <c r="B19" s="17">
         <v>4</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="17">
         <f>B19*N4</f>
         <v>19.2</v>
       </c>
@@ -11778,93 +12034,169 @@
       <c r="F19" s="5">
         <v>282</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="G19" s="21">
+        <f t="shared" si="0"/>
+        <v>14.1</v>
+      </c>
+      <c r="H19" s="21">
+        <f t="shared" si="4"/>
+        <v>0.83964278118733326</v>
+      </c>
+      <c r="I19" s="21">
+        <f t="shared" si="5"/>
+        <v>13.931099999999999</v>
+      </c>
+      <c r="J19" s="21">
+        <f t="shared" si="6"/>
+        <v>0.84083178460379338</v>
+      </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D22">
-        <v>10</v>
-      </c>
-      <c r="E22">
-        <v>5</v>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="19"/>
+      <c r="C20" s="17">
+        <f>N5</f>
+        <v>1.58</v>
+      </c>
+      <c r="D20" s="5">
+        <v>6307</v>
+      </c>
+      <c r="E20" s="5">
+        <v>6463</v>
+      </c>
+      <c r="F20" s="5">
+        <v>2018</v>
+      </c>
+      <c r="G20" s="21">
+        <f t="shared" si="0"/>
+        <v>100.9</v>
+      </c>
+      <c r="H20" s="21">
+        <f t="shared" si="4"/>
+        <v>2.2461077445216202</v>
+      </c>
+      <c r="I20" s="21">
+        <f t="shared" si="5"/>
+        <v>100.73110000000001</v>
+      </c>
+      <c r="J20" s="21">
+        <f t="shared" si="6"/>
+        <v>2.2465524899276224</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>2058</v>
-      </c>
-      <c r="E23">
-        <v>1927</v>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="19"/>
+      <c r="C21" s="17">
+        <f>C20*2</f>
+        <v>3.16</v>
+      </c>
+      <c r="D21" s="5">
+        <v>6102</v>
+      </c>
+      <c r="E21" s="5">
+        <v>6446</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1877</v>
+      </c>
+      <c r="G21" s="21">
+        <f t="shared" si="0"/>
+        <v>93.85</v>
+      </c>
+      <c r="H21" s="21">
+        <f t="shared" si="4"/>
+        <v>2.1662179022434467</v>
+      </c>
+      <c r="I21" s="21">
+        <f t="shared" si="5"/>
+        <v>93.681100000000001</v>
+      </c>
+      <c r="J21" s="21">
+        <f t="shared" si="6"/>
+        <v>2.1666790463748891</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C24">
-        <v>1.58</v>
-      </c>
       <c r="D24">
-        <v>1972</v>
+        <v>10</v>
       </c>
       <c r="E24">
-        <v>2018</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C25">
-        <v>3.16</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>1910</v>
+        <v>2058</v>
       </c>
       <c r="E25">
-        <v>1877</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C26">
-        <v>4.8</v>
+        <v>1.58</v>
       </c>
       <c r="D26">
-        <v>1772</v>
+        <v>1972</v>
       </c>
       <c r="E26">
-        <v>1846</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C27">
-        <v>9.6</v>
+        <v>3.16</v>
       </c>
       <c r="D27">
-        <v>1257</v>
+        <v>1910</v>
       </c>
       <c r="E27">
-        <v>1256</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C28">
-        <v>14.4</v>
+        <v>4.8</v>
       </c>
       <c r="D28">
-        <v>654</v>
+        <v>1772</v>
       </c>
       <c r="E28">
-        <v>733</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C29">
+        <v>9.6</v>
+      </c>
+      <c r="D29">
+        <v>1257</v>
+      </c>
+      <c r="E29">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>14.4</v>
+      </c>
+      <c r="D30">
+        <v>654</v>
+      </c>
+      <c r="E30">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C31">
         <v>19.2</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>237</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>282</v>
       </c>
     </row>
@@ -11977,10 +12309,456 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A4:A11"/>
-    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="A12:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1852697D-81D2-405D-9049-9B1F010A5D8B}">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>14.399999999999999</v>
+      </c>
+      <c r="B2">
+        <v>6152</v>
+      </c>
+      <c r="C2">
+        <v>6569</v>
+      </c>
+      <c r="D2">
+        <v>654</v>
+      </c>
+      <c r="E2" s="22">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="F2" s="22">
+        <v>1.2786711852544421</v>
+      </c>
+      <c r="G2" s="22">
+        <v>32.531100000000002</v>
+      </c>
+      <c r="H2" s="22">
+        <v>1.2794522617120185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>19.2</v>
+      </c>
+      <c r="B3">
+        <v>6021</v>
+      </c>
+      <c r="C3">
+        <v>6407</v>
+      </c>
+      <c r="D3">
+        <v>237</v>
+      </c>
+      <c r="E3" s="22">
+        <v>11.85</v>
+      </c>
+      <c r="F3" s="22">
+        <v>0.76974021591703257</v>
+      </c>
+      <c r="G3" s="22">
+        <v>11.681099999999999</v>
+      </c>
+      <c r="H3" s="22">
+        <v>0.77103702245741734</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>6221</v>
+      </c>
+      <c r="C4">
+        <v>6542</v>
+      </c>
+      <c r="D4">
+        <v>2058</v>
+      </c>
+      <c r="E4" s="22">
+        <v>102.9</v>
+      </c>
+      <c r="F4" s="22">
+        <v>2.268259244442751</v>
+      </c>
+      <c r="G4" s="22">
+        <v>102.73110000000001</v>
+      </c>
+      <c r="H4" s="22">
+        <v>2.2686996473751213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4.8</v>
+      </c>
+      <c r="B5">
+        <v>6314</v>
+      </c>
+      <c r="C5">
+        <v>6400</v>
+      </c>
+      <c r="D5">
+        <v>1772</v>
+      </c>
+      <c r="E5" s="22">
+        <v>88.6</v>
+      </c>
+      <c r="F5" s="22">
+        <v>2.1047565179849186</v>
+      </c>
+      <c r="G5" s="22">
+        <v>88.431100000000001</v>
+      </c>
+      <c r="H5" s="22">
+        <v>2.1052311250786691</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>9.6</v>
+      </c>
+      <c r="B6">
+        <v>6440</v>
+      </c>
+      <c r="C6">
+        <v>6508</v>
+      </c>
+      <c r="D6">
+        <v>1257</v>
+      </c>
+      <c r="E6" s="22">
+        <v>62.85</v>
+      </c>
+      <c r="F6" s="22">
+        <v>1.7727097901235838</v>
+      </c>
+      <c r="G6" s="22">
+        <v>62.681100000000001</v>
+      </c>
+      <c r="H6" s="22">
+        <v>1.7732732699727924</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1.58</v>
+      </c>
+      <c r="B7">
+        <v>6282</v>
+      </c>
+      <c r="C7">
+        <v>6408</v>
+      </c>
+      <c r="D7">
+        <v>1972</v>
+      </c>
+      <c r="E7" s="22">
+        <v>98.6</v>
+      </c>
+      <c r="F7" s="22">
+        <v>2.220360331117452</v>
+      </c>
+      <c r="G7" s="22">
+        <v>98.431100000000001</v>
+      </c>
+      <c r="H7" s="22">
+        <v>2.2208102327754169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3.16</v>
+      </c>
+      <c r="B8">
+        <v>6322</v>
+      </c>
+      <c r="C8">
+        <v>6575</v>
+      </c>
+      <c r="D8">
+        <v>1910</v>
+      </c>
+      <c r="E8" s="22">
+        <v>95.5</v>
+      </c>
+      <c r="F8" s="22">
+        <v>2.1851773383412159</v>
+      </c>
+      <c r="G8" s="22">
+        <v>95.331100000000006</v>
+      </c>
+      <c r="H8" s="22">
+        <v>2.1856344822499483</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C09578A-9BE6-4783-B1BE-95C120C8BA1D}">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>6134</v>
+      </c>
+      <c r="C2">
+        <v>6348</v>
+      </c>
+      <c r="D2">
+        <v>1927</v>
+      </c>
+      <c r="E2" s="22">
+        <v>96.35</v>
+      </c>
+      <c r="F2" s="22">
+        <v>2.1948804067647969</v>
+      </c>
+      <c r="G2" s="22">
+        <v>96.181100000000001</v>
+      </c>
+      <c r="H2" s="22">
+        <v>2.1953355301638973</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>4.8</v>
+      </c>
+      <c r="B3">
+        <v>6505</v>
+      </c>
+      <c r="C3">
+        <v>6256</v>
+      </c>
+      <c r="D3">
+        <v>1846</v>
+      </c>
+      <c r="E3" s="22">
+        <v>92.3</v>
+      </c>
+      <c r="F3" s="22">
+        <v>2.1482551058940835</v>
+      </c>
+      <c r="G3" s="22">
+        <v>92.131100000000004</v>
+      </c>
+      <c r="H3" s="22">
+        <v>2.148720105085816</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>9.6</v>
+      </c>
+      <c r="B4">
+        <v>6275</v>
+      </c>
+      <c r="C4">
+        <v>6286</v>
+      </c>
+      <c r="D4">
+        <v>1256</v>
+      </c>
+      <c r="E4" s="22">
+        <v>62.8</v>
+      </c>
+      <c r="F4" s="22">
+        <v>1.772004514666935</v>
+      </c>
+      <c r="G4" s="22">
+        <v>62.631099999999996</v>
+      </c>
+      <c r="H4" s="22">
+        <v>1.7725682187154319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>14.399999999999999</v>
+      </c>
+      <c r="B5">
+        <v>6162</v>
+      </c>
+      <c r="C5">
+        <v>6334</v>
+      </c>
+      <c r="D5">
+        <v>733</v>
+      </c>
+      <c r="E5" s="22">
+        <v>36.65</v>
+      </c>
+      <c r="F5" s="22">
+        <v>1.3536986370680884</v>
+      </c>
+      <c r="G5" s="22">
+        <v>36.481099999999998</v>
+      </c>
+      <c r="H5" s="22">
+        <v>1.3544364473831911</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>19.2</v>
+      </c>
+      <c r="B6">
+        <v>6189</v>
+      </c>
+      <c r="C6">
+        <v>6447</v>
+      </c>
+      <c r="D6">
+        <v>282</v>
+      </c>
+      <c r="E6" s="22">
+        <v>14.1</v>
+      </c>
+      <c r="F6" s="22">
+        <v>0.83964278118733326</v>
+      </c>
+      <c r="G6" s="22">
+        <v>13.931099999999999</v>
+      </c>
+      <c r="H6" s="22">
+        <v>0.84083178460379338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1.58</v>
+      </c>
+      <c r="B7">
+        <v>6307</v>
+      </c>
+      <c r="C7">
+        <v>6463</v>
+      </c>
+      <c r="D7">
+        <v>2018</v>
+      </c>
+      <c r="E7" s="22">
+        <v>100.9</v>
+      </c>
+      <c r="F7" s="22">
+        <v>2.2461077445216202</v>
+      </c>
+      <c r="G7" s="22">
+        <v>100.73110000000001</v>
+      </c>
+      <c r="H7" s="22">
+        <v>2.2465524899276224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3.16</v>
+      </c>
+      <c r="B8">
+        <v>6102</v>
+      </c>
+      <c r="C8">
+        <v>6446</v>
+      </c>
+      <c r="D8">
+        <v>1877</v>
+      </c>
+      <c r="E8" s="22">
+        <v>93.85</v>
+      </c>
+      <c r="F8" s="22">
+        <v>2.1662179022434467</v>
+      </c>
+      <c r="G8" s="22">
+        <v>93.681100000000001</v>
+      </c>
+      <c r="H8" s="22">
+        <v>2.1666790463748891</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>